--- a/REGULAR/RE-ENCODE/CASTRO, VIVIAN.xlsx
+++ b/REGULAR/RE-ENCODE/CASTRO, VIVIAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32542D70-54BC-4B3A-96B7-36D4D4EAAD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A465B-3511-4CBF-94F4-65EF60028342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +243,9 @@
   </si>
   <si>
     <t>3/20,21,22,23,24/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3788,7 +3802,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F19" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3882,6 +3896,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3903,6 +3920,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>583.32500000000005</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/RE-ENCODE/CASTRO, VIVIAN.xlsx
+++ b/REGULAR/RE-ENCODE/CASTRO, VIVIAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A465B-3511-4CBF-94F4-65EF60028342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,12 +245,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>06/1-4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -937,25 +942,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1262,34 +1267,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1315,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1333,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1355,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1358,7 +1363,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1371,7 +1376,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1388,7 +1393,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1432,7 +1437,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>215.57499999999999</v>
+        <v>218.07499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1442,12 +1447,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>367.75</v>
+        <v>366.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1474,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1489,7 +1494,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1509,7 +1514,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1529,7 +1534,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1549,7 +1554,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1569,7 +1574,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1589,7 +1594,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1609,7 +1614,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1629,7 +1634,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1649,7 +1654,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1669,7 +1674,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1689,7 +1694,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1713,7 +1718,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -1731,7 +1736,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1751,7 +1756,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1771,7 +1776,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1791,7 +1796,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1811,7 +1816,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1831,7 +1836,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1851,7 +1856,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -1871,7 +1876,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -1891,7 +1896,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -1911,7 +1916,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -1931,7 +1936,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -1951,7 +1956,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -1975,7 +1980,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -1993,7 +1998,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2013,7 +2018,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2033,7 +2038,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2053,7 +2058,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2073,7 +2078,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2093,7 +2098,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2113,7 +2118,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2133,7 +2138,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2153,7 +2158,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2173,7 +2178,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2193,7 +2198,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2213,7 +2218,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2237,7 +2242,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -2255,7 +2260,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2275,7 +2280,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2295,7 +2300,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2315,7 +2320,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2335,7 +2340,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2361,7 +2366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>50</v>
@@ -2378,7 +2383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -2398,7 +2403,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -2424,7 +2429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>52</v>
@@ -2443,7 +2448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44409</v>
       </c>
@@ -2463,7 +2468,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44440</v>
       </c>
@@ -2483,7 +2488,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44470</v>
       </c>
@@ -2503,7 +2508,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44501</v>
       </c>
@@ -2523,7 +2528,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44531</v>
       </c>
@@ -2543,7 +2548,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>57</v>
       </c>
@@ -2561,7 +2566,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44562</v>
       </c>
@@ -2581,7 +2586,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44593</v>
       </c>
@@ -2601,7 +2606,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44621</v>
       </c>
@@ -2621,7 +2626,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44652</v>
       </c>
@@ -2641,7 +2646,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44682</v>
       </c>
@@ -2661,7 +2666,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44713</v>
       </c>
@@ -2687,7 +2692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
@@ -2707,7 +2712,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44774</v>
       </c>
@@ -2727,7 +2732,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44805</v>
       </c>
@@ -2747,7 +2752,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44835</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -2817,7 +2822,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>62</v>
       </c>
@@ -2835,7 +2840,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44927</v>
       </c>
@@ -2861,7 +2866,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44958</v>
       </c>
@@ -2881,7 +2886,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44986</v>
       </c>
@@ -2907,47 +2912,53 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45017</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45047</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45078</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -2956,12 +2967,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>4</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45108</v>
       </c>
@@ -2979,7 +2994,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45139</v>
       </c>
@@ -2997,7 +3012,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45170</v>
       </c>
@@ -3015,7 +3030,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45200</v>
       </c>
@@ -3033,7 +3048,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45231</v>
       </c>
@@ -3051,7 +3066,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45261</v>
       </c>
@@ -3069,7 +3084,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3085,7 +3100,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3101,7 +3116,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3117,7 +3132,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3133,7 +3148,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3149,7 +3164,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3165,7 +3180,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3181,7 +3196,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3197,7 +3212,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3213,7 +3228,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3229,7 +3244,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3245,7 +3260,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3261,7 +3276,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3277,7 +3292,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3293,7 +3308,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3309,7 +3324,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3325,7 +3340,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3341,7 +3356,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3357,7 +3372,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3373,7 +3388,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3389,7 +3404,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3405,7 +3420,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3421,7 +3436,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3437,7 +3452,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3453,7 +3468,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3469,7 +3484,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3485,7 +3500,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3501,7 +3516,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3517,7 +3532,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3533,7 +3548,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3549,7 +3564,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3565,7 +3580,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3581,7 +3596,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3597,7 +3612,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3613,7 +3628,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3629,7 +3644,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3645,7 +3660,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3661,7 +3676,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3677,7 +3692,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3693,7 +3708,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3709,7 +3724,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3725,7 +3740,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3741,7 +3756,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -3772,10 +3787,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3798,28 +3813,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3832,7 +3847,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>182.82499999999999</v>
       </c>
@@ -3885,17 +3900,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -3919,10 +3934,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>583.32500000000005</v>
+        <v>584.32500000000005</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -3950,7 +3965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3976,7 +3991,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4002,7 +4017,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4028,7 +4043,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4054,7 +4069,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4106,7 +4121,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4132,7 +4147,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4172,7 +4187,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4192,7 +4207,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4213,7 +4228,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4234,7 +4249,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4255,7 +4270,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4276,7 +4291,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4297,7 +4312,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4318,7 +4333,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4339,7 +4354,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4360,7 +4375,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4381,7 +4396,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4402,7 +4417,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4423,7 +4438,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4465,7 +4480,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4486,7 +4501,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4507,7 +4522,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4549,7 +4564,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4591,7 +4606,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4612,7 +4627,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4621,7 +4636,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4630,7 +4645,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4639,7 +4654,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4648,7 +4663,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4657,7 +4672,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4666,7 +4681,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4675,7 +4690,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4684,7 +4699,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4693,7 +4708,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4702,7 +4717,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4711,7 +4726,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4720,7 +4735,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4729,7 +4744,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4738,7 +4753,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4747,7 +4762,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4756,7 +4771,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4765,7 +4780,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4774,7 +4789,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4783,7 +4798,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4792,7 +4807,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4801,7 +4816,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4810,7 +4825,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4819,7 +4834,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4828,7 +4843,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4837,7 +4852,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4846,7 +4861,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4855,7 +4870,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4864,7 +4879,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4873,7 +4888,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/CASTRO, VIVIAN.xlsx
+++ b/REGULAR/RE-ENCODE/CASTRO, VIVIAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726268CB-5568-493F-B1AA-FE947F93EEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="229">
   <si>
     <t>PERIOD</t>
   </si>
@@ -715,12 +714,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>SOLO(7-0-0)</t>
+  </si>
+  <si>
+    <t>02/07-09,12-15/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1402,7 +1407,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1419,25 +1424,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K425" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K426" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1744,34 +1749,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K425"/>
+  <dimension ref="A2:K426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="3216" topLeftCell="A373" activePane="bottomLeft"/>
+      <pane ySplit="3210" topLeftCell="A373" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
+      <selection pane="bottomLeft" activeCell="G380" sqref="G380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1797,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1810,7 +1815,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1837,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1840,7 +1845,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1853,7 +1858,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1870,7 +1875,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1929,7 +1934,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="51" t="s">
         <v>63</v>
@@ -1944,7 +1949,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="20" t="s">
         <v>64</v>
@@ -1959,7 +1964,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>62</v>
       </c>
@@ -1981,7 +1986,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36403</v>
       </c>
@@ -2005,7 +2010,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36433</v>
       </c>
@@ -2029,7 +2034,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>36464</v>
       </c>
@@ -2049,7 +2054,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>36494</v>
       </c>
@@ -2073,7 +2078,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36525</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>71</v>
@@ -2119,7 +2124,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -2137,7 +2142,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>36556</v>
       </c>
@@ -2161,7 +2166,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>36585</v>
       </c>
@@ -2185,7 +2190,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>36616</v>
       </c>
@@ -2211,7 +2216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>36646</v>
       </c>
@@ -2237,7 +2242,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36677</v>
       </c>
@@ -2263,7 +2268,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>77</v>
@@ -2283,7 +2288,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36707</v>
       </c>
@@ -2307,7 +2312,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36738</v>
       </c>
@@ -2331,7 +2336,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36769</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>81</v>
@@ -2377,7 +2382,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>36799</v>
       </c>
@@ -2401,7 +2406,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36830</v>
       </c>
@@ -2421,7 +2426,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>36860</v>
       </c>
@@ -2445,7 +2450,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>36891</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>85</v>
@@ -2491,7 +2496,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>86</v>
       </c>
@@ -2509,7 +2514,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>36922</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>59</v>
@@ -2557,7 +2562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36950</v>
       </c>
@@ -2581,7 +2586,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36981</v>
       </c>
@@ -2605,7 +2610,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>37011</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>37042</v>
       </c>
@@ -2651,7 +2656,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>37072</v>
       </c>
@@ -2675,7 +2680,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>37103</v>
       </c>
@@ -2699,7 +2704,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>37134</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>52</v>
@@ -2747,7 +2752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>97</v>
@@ -2767,7 +2772,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>37164</v>
       </c>
@@ -2787,7 +2792,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>37195</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>37225</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>101</v>
@@ -2859,7 +2864,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>37256</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>103</v>
@@ -2905,7 +2910,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>104</v>
       </c>
@@ -2923,7 +2928,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37287</v>
       </c>
@@ -2947,7 +2952,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>37315</v>
       </c>
@@ -2971,7 +2976,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37346</v>
       </c>
@@ -2991,7 +2996,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>37376</v>
       </c>
@@ -3011,7 +3016,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37407</v>
       </c>
@@ -3035,7 +3040,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>37437</v>
       </c>
@@ -3059,7 +3064,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37468</v>
       </c>
@@ -3079,7 +3084,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>37499</v>
       </c>
@@ -3099,7 +3104,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37529</v>
       </c>
@@ -3119,7 +3124,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37560</v>
       </c>
@@ -3139,7 +3144,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37590</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37621</v>
       </c>
@@ -3185,7 +3190,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>107</v>
       </c>
@@ -3203,7 +3208,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37652</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37680</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>37711</v>
       </c>
@@ -3271,7 +3276,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37741</v>
       </c>
@@ -3291,7 +3296,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>37772</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>37807</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>59</v>
@@ -3336,7 +3341,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>65</v>
@@ -3353,7 +3358,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37802</v>
       </c>
@@ -3377,7 +3382,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37833</v>
       </c>
@@ -3397,7 +3402,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37864</v>
       </c>
@@ -3421,7 +3426,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>37894</v>
       </c>
@@ -3441,7 +3446,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37925</v>
       </c>
@@ -3461,7 +3466,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>37955</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>37986</v>
       </c>
@@ -3511,7 +3516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -3531,7 +3536,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>119</v>
       </c>
@@ -3549,7 +3554,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>38017</v>
       </c>
@@ -3573,7 +3578,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>38046</v>
       </c>
@@ -3593,7 +3598,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>38077</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>38107</v>
       </c>
@@ -3637,7 +3642,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>38138</v>
       </c>
@@ -3657,7 +3662,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>38168</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>38199</v>
       </c>
@@ -3709,7 +3714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>59</v>
@@ -3731,7 +3736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>38230</v>
       </c>
@@ -3751,7 +3756,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>38260</v>
       </c>
@@ -3771,7 +3776,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>38291</v>
       </c>
@@ -3795,7 +3800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>38321</v>
       </c>
@@ -3819,7 +3824,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>38352</v>
       </c>
@@ -3843,7 +3848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>78</v>
@@ -3863,7 +3868,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>126</v>
       </c>
@@ -3881,7 +3886,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>38383</v>
       </c>
@@ -3901,7 +3906,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>38411</v>
       </c>
@@ -3921,7 +3926,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>38442</v>
       </c>
@@ -3941,7 +3946,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>38472</v>
       </c>
@@ -3965,7 +3970,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>38503</v>
       </c>
@@ -3985,7 +3990,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>38533</v>
       </c>
@@ -4009,7 +4014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>38564</v>
       </c>
@@ -4029,7 +4034,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>38595</v>
       </c>
@@ -4053,7 +4058,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>38625</v>
       </c>
@@ -4073,7 +4078,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38656</v>
       </c>
@@ -4099,7 +4104,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>38686</v>
       </c>
@@ -4119,7 +4124,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38717</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>78</v>
@@ -4162,7 +4167,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>129</v>
@@ -4179,7 +4184,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>131</v>
       </c>
@@ -4197,7 +4202,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>38748</v>
       </c>
@@ -4217,7 +4222,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38776</v>
       </c>
@@ -4237,7 +4242,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>38807</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>68</v>
@@ -4281,7 +4286,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>38837</v>
       </c>
@@ -4301,7 +4306,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>38868</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38898</v>
       </c>
@@ -4351,7 +4356,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38929</v>
       </c>
@@ -4375,7 +4380,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>38960</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>116</v>
@@ -4418,7 +4423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>108</v>
@@ -4435,7 +4440,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>129</v>
@@ -4454,7 +4459,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>38990</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>39021</v>
       </c>
@@ -4500,7 +4505,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>78</v>
@@ -4517,7 +4522,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>39051</v>
       </c>
@@ -4541,7 +4546,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>39082</v>
       </c>
@@ -4565,7 +4570,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>140</v>
       </c>
@@ -4583,7 +4588,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>39113</v>
       </c>
@@ -4607,7 +4612,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>39141</v>
       </c>
@@ -4631,7 +4636,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>39172</v>
       </c>
@@ -4655,7 +4660,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>39202</v>
       </c>
@@ -4679,7 +4684,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>39233</v>
       </c>
@@ -4699,7 +4704,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>39263</v>
       </c>
@@ -4725,7 +4730,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>108</v>
@@ -4742,7 +4747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>91</v>
@@ -4759,7 +4764,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>39294</v>
       </c>
@@ -4783,7 +4788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>146</v>
@@ -4802,7 +4807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>149</v>
@@ -4819,7 +4824,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>108</v>
@@ -4836,7 +4841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>39325</v>
       </c>
@@ -4860,7 +4865,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>39355</v>
       </c>
@@ -4884,7 +4889,7 @@
         <v>39425</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>151</v>
@@ -4901,7 +4906,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>39386</v>
       </c>
@@ -4925,7 +4930,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>39416</v>
       </c>
@@ -4949,7 +4954,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39447</v>
       </c>
@@ -4973,7 +4978,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>118</v>
@@ -4993,7 +4998,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>153</v>
       </c>
@@ -5011,7 +5016,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>39478</v>
       </c>
@@ -5031,7 +5036,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>39507</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>154</v>
@@ -5074,7 +5079,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>39538</v>
       </c>
@@ -5098,7 +5103,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>39568</v>
       </c>
@@ -5122,7 +5127,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>39599</v>
       </c>
@@ -5146,7 +5151,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>39629</v>
       </c>
@@ -5166,7 +5171,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>39660</v>
       </c>
@@ -5190,7 +5195,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>39691</v>
       </c>
@@ -5210,7 +5215,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>39721</v>
       </c>
@@ -5230,7 +5235,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>39752</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>39639</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>39782</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>129</v>
@@ -5301,7 +5306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>39813</v>
       </c>
@@ -5321,7 +5326,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>160</v>
       </c>
@@ -5336,7 +5341,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>39844</v>
       </c>
@@ -5356,7 +5361,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>39872</v>
       </c>
@@ -5376,7 +5381,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>39903</v>
       </c>
@@ -5400,7 +5405,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39933</v>
       </c>
@@ -5424,7 +5429,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>39964</v>
       </c>
@@ -5444,7 +5449,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>39994</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>40025</v>
       </c>
@@ -5488,7 +5493,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>40056</v>
       </c>
@@ -5508,7 +5513,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>40086</v>
       </c>
@@ -5528,7 +5533,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>40117</v>
       </c>
@@ -5548,7 +5553,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>40147</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>108</v>
@@ -5591,7 +5596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>40178</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>165</v>
       </c>
@@ -5632,7 +5637,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>40209</v>
       </c>
@@ -5656,7 +5661,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>128</v>
@@ -5675,7 +5680,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>129</v>
@@ -5694,7 +5699,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>142</v>
@@ -5711,7 +5716,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>40237</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>72</v>
@@ -5757,7 +5762,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>40268</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>40298</v>
       </c>
@@ -5807,7 +5812,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>40329</v>
       </c>
@@ -5831,7 +5836,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>40359</v>
       </c>
@@ -5851,7 +5856,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>40390</v>
       </c>
@@ -5875,7 +5880,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>40421</v>
       </c>
@@ -5899,7 +5904,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>40451</v>
       </c>
@@ -5919,7 +5924,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>40482</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>40512</v>
       </c>
@@ -5965,7 +5970,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>40543</v>
       </c>
@@ -5985,7 +5990,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="48" t="s">
         <v>174</v>
       </c>
@@ -6000,7 +6005,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>40574</v>
       </c>
@@ -6024,7 +6029,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>40602</v>
       </c>
@@ -6044,7 +6049,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>40633</v>
       </c>
@@ -6068,7 +6073,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>45</v>
@@ -6085,7 +6090,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>175</v>
@@ -6102,7 +6107,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>176</v>
@@ -6119,7 +6124,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>177</v>
@@ -6136,7 +6141,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>72</v>
@@ -6151,7 +6156,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>40663</v>
       </c>
@@ -6171,7 +6176,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>40694</v>
       </c>
@@ -6191,7 +6196,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>40724</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>40755</v>
       </c>
@@ -6237,7 +6242,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>40786</v>
       </c>
@@ -6257,7 +6262,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>40816</v>
       </c>
@@ -6281,7 +6286,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>40847</v>
       </c>
@@ -6301,7 +6306,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>40877</v>
       </c>
@@ -6325,7 +6330,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>40908</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>186</v>
       </c>
@@ -6364,7 +6369,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>40939</v>
       </c>
@@ -6384,7 +6389,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>40968</v>
       </c>
@@ -6404,7 +6409,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>40999</v>
       </c>
@@ -6424,7 +6429,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>41029</v>
       </c>
@@ -6448,7 +6453,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>41060</v>
       </c>
@@ -6468,7 +6473,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>41090</v>
       </c>
@@ -6488,7 +6493,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>41121</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>41152</v>
       </c>
@@ -6534,7 +6539,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>41182</v>
       </c>
@@ -6554,7 +6559,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>41213</v>
       </c>
@@ -6574,7 +6579,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>41243</v>
       </c>
@@ -6600,7 +6605,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>116</v>
@@ -6617,7 +6622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>41274</v>
       </c>
@@ -6637,7 +6642,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="48" t="s">
         <v>191</v>
       </c>
@@ -6655,7 +6660,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>41305</v>
       </c>
@@ -6675,7 +6680,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>41333</v>
       </c>
@@ -6695,7 +6700,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>41364</v>
       </c>
@@ -6715,7 +6720,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>41394</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -6760,7 +6765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -6777,7 +6782,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>41425</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>41455</v>
       </c>
@@ -6823,7 +6828,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>41486</v>
       </c>
@@ -6843,7 +6848,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>41517</v>
       </c>
@@ -6863,7 +6868,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>41547</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>75</v>
@@ -6906,7 +6911,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>41578</v>
       </c>
@@ -6926,7 +6931,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>41608</v>
       </c>
@@ -6946,7 +6951,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>41639</v>
       </c>
@@ -6966,7 +6971,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>201</v>
       </c>
@@ -6984,7 +6989,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>41670</v>
       </c>
@@ -7004,7 +7009,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>41698</v>
       </c>
@@ -7024,7 +7029,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>41729</v>
       </c>
@@ -7044,7 +7049,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>41759</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>41790</v>
       </c>
@@ -7090,7 +7095,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>41820</v>
       </c>
@@ -7110,7 +7115,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>41851</v>
       </c>
@@ -7130,7 +7135,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>41882</v>
       </c>
@@ -7154,7 +7159,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>41912</v>
       </c>
@@ -7174,7 +7179,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>41943</v>
       </c>
@@ -7198,7 +7203,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>41973</v>
       </c>
@@ -7222,7 +7227,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>42004</v>
       </c>
@@ -7248,7 +7253,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>50</v>
@@ -7265,7 +7270,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>206</v>
@@ -7282,7 +7287,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>118</v>
@@ -7302,7 +7307,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
         <v>207</v>
       </c>
@@ -7320,7 +7325,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>42035</v>
       </c>
@@ -7340,7 +7345,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>42063</v>
       </c>
@@ -7360,7 +7365,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>42094</v>
       </c>
@@ -7380,7 +7385,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>42124</v>
       </c>
@@ -7400,7 +7405,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>42155</v>
       </c>
@@ -7420,7 +7425,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>42185</v>
       </c>
@@ -7440,7 +7445,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>42216</v>
       </c>
@@ -7460,7 +7465,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>42247</v>
       </c>
@@ -7480,7 +7485,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>42277</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>42308</v>
       </c>
@@ -7524,7 +7529,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>42338</v>
       </c>
@@ -7544,7 +7549,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>42369</v>
       </c>
@@ -7568,7 +7573,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
         <v>209</v>
       </c>
@@ -7586,7 +7591,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>42400</v>
       </c>
@@ -7606,7 +7611,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>42429</v>
       </c>
@@ -7626,7 +7631,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>42460</v>
       </c>
@@ -7646,7 +7651,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>42490</v>
       </c>
@@ -7666,7 +7671,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>42521</v>
       </c>
@@ -7686,7 +7691,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>42551</v>
       </c>
@@ -7706,7 +7711,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>42582</v>
       </c>
@@ -7726,7 +7731,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>42613</v>
       </c>
@@ -7746,7 +7751,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>42643</v>
       </c>
@@ -7766,7 +7771,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>42674</v>
       </c>
@@ -7786,7 +7791,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>42704</v>
       </c>
@@ -7806,7 +7811,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>42735</v>
       </c>
@@ -7832,7 +7837,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>108</v>
@@ -7849,7 +7854,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>129</v>
@@ -7866,7 +7871,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>212</v>
       </c>
@@ -7884,7 +7889,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>42766</v>
       </c>
@@ -7908,7 +7913,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>42794</v>
       </c>
@@ -7934,7 +7939,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>52</v>
@@ -7953,7 +7958,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>87</v>
@@ -7972,7 +7977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>42825</v>
       </c>
@@ -7992,7 +7997,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>42855</v>
       </c>
@@ -8012,7 +8017,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>42886</v>
       </c>
@@ -8032,7 +8037,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>42916</v>
       </c>
@@ -8052,7 +8057,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>42947</v>
       </c>
@@ -8072,7 +8077,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>42978</v>
       </c>
@@ -8092,7 +8097,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>43008</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>43039</v>
       </c>
@@ -8138,7 +8143,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>43069</v>
       </c>
@@ -8158,7 +8163,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>43100</v>
       </c>
@@ -8178,7 +8183,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="48" t="s">
         <v>44</v>
       </c>
@@ -8196,7 +8201,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43101</v>
       </c>
@@ -8216,7 +8221,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43132</v>
       </c>
@@ -8236,7 +8241,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43160</v>
       </c>
@@ -8256,7 +8261,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43191</v>
       </c>
@@ -8276,7 +8281,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43221</v>
       </c>
@@ -8296,7 +8301,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43252</v>
       </c>
@@ -8316,7 +8321,7 @@
       <c r="J309" s="12"/>
       <c r="K309" s="15"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43282</v>
       </c>
@@ -8336,7 +8341,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43313</v>
       </c>
@@ -8356,7 +8361,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43344</v>
       </c>
@@ -8376,7 +8381,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43374</v>
       </c>
@@ -8396,7 +8401,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43405</v>
       </c>
@@ -8416,7 +8421,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43435</v>
       </c>
@@ -8440,7 +8445,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="48" t="s">
         <v>46</v>
       </c>
@@ -8458,7 +8463,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43466</v>
       </c>
@@ -8478,7 +8483,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43497</v>
       </c>
@@ -8498,7 +8503,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43525</v>
       </c>
@@ -8518,7 +8523,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43556</v>
       </c>
@@ -8538,7 +8543,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43586</v>
       </c>
@@ -8558,7 +8563,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43617</v>
       </c>
@@ -8578,7 +8583,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43647</v>
       </c>
@@ -8598,7 +8603,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43678</v>
       </c>
@@ -8618,7 +8623,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43709</v>
       </c>
@@ -8638,7 +8643,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43739</v>
       </c>
@@ -8658,7 +8663,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43770</v>
       </c>
@@ -8678,7 +8683,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43800</v>
       </c>
@@ -8702,7 +8707,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="48" t="s">
         <v>47</v>
       </c>
@@ -8720,7 +8725,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43831</v>
       </c>
@@ -8740,7 +8745,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43862</v>
       </c>
@@ -8760,7 +8765,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43891</v>
       </c>
@@ -8780,7 +8785,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43922</v>
       </c>
@@ -8800,7 +8805,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43952</v>
       </c>
@@ -8820,7 +8825,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43983</v>
       </c>
@@ -8840,7 +8845,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44013</v>
       </c>
@@ -8860,7 +8865,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44044</v>
       </c>
@@ -8880,7 +8885,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44075</v>
       </c>
@@ -8900,7 +8905,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44105</v>
       </c>
@@ -8920,7 +8925,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44136</v>
       </c>
@@ -8940,7 +8945,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44166</v>
       </c>
@@ -8964,7 +8969,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="48" t="s">
         <v>48</v>
       </c>
@@ -8982,7 +8987,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44197</v>
       </c>
@@ -9002,7 +9007,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44228</v>
       </c>
@@ -9022,7 +9027,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44256</v>
       </c>
@@ -9042,7 +9047,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44287</v>
       </c>
@@ -9062,7 +9067,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44317</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>50</v>
@@ -9105,7 +9110,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44348</v>
       </c>
@@ -9125,7 +9130,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44378</v>
       </c>
@@ -9151,7 +9156,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>52</v>
@@ -9170,7 +9175,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44409</v>
       </c>
@@ -9190,7 +9195,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44440</v>
       </c>
@@ -9210,7 +9215,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44470</v>
       </c>
@@ -9230,7 +9235,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44501</v>
       </c>
@@ -9250,7 +9255,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44531</v>
       </c>
@@ -9270,7 +9275,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="48" t="s">
         <v>54</v>
       </c>
@@ -9288,7 +9293,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44562</v>
       </c>
@@ -9308,7 +9313,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44593</v>
       </c>
@@ -9328,7 +9333,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44621</v>
       </c>
@@ -9348,7 +9353,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44652</v>
       </c>
@@ -9368,7 +9373,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44682</v>
       </c>
@@ -9388,7 +9393,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44713</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44743</v>
       </c>
@@ -9434,7 +9439,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44774</v>
       </c>
@@ -9454,7 +9459,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44805</v>
       </c>
@@ -9474,7 +9479,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44835</v>
       </c>
@@ -9498,7 +9503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44866</v>
       </c>
@@ -9524,7 +9529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44896</v>
       </c>
@@ -9544,7 +9549,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="48" t="s">
         <v>58</v>
       </c>
@@ -9562,7 +9567,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44957</v>
       </c>
@@ -9588,7 +9593,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44985</v>
       </c>
@@ -9608,7 +9613,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>45016</v>
       </c>
@@ -9634,7 +9639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45046</v>
       </c>
@@ -9654,7 +9659,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45077</v>
       </c>
@@ -9674,7 +9679,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>45107</v>
       </c>
@@ -9700,7 +9705,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45138</v>
       </c>
@@ -9720,7 +9725,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45169</v>
       </c>
@@ -9746,7 +9751,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45199</v>
       </c>
@@ -9766,7 +9771,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45230</v>
       </c>
@@ -9786,7 +9791,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45260</v>
       </c>
@@ -9812,7 +9817,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45291</v>
       </c>
@@ -9832,7 +9837,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
         <v>226</v>
       </c>
@@ -9850,7 +9855,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45322</v>
       </c>
@@ -9876,11 +9881,11 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B385" s="20"/>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="40"/>
+      <c r="B385" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>
       <c r="E385" s="9"/>
@@ -9892,11 +9897,13 @@
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K385" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9912,9 +9919,9 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9930,9 +9937,9 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9948,9 +9955,9 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9966,9 +9973,9 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9984,9 +9991,9 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10002,9 +10009,9 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10020,9 +10027,9 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10038,9 +10045,9 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10056,9 +10063,9 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10074,9 +10081,9 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10092,8 +10099,10 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397" s="40"/>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="40">
+        <v>45688</v>
+      </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
@@ -10108,7 +10117,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10124,7 +10133,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10140,7 +10149,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10156,7 +10165,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10172,7 +10181,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10188,7 +10197,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10204,7 +10213,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10220,7 +10229,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10236,7 +10245,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10252,7 +10261,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10268,7 +10277,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10284,7 +10293,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10300,7 +10309,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10316,7 +10325,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10332,7 +10341,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10348,7 +10357,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10364,7 +10373,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10380,7 +10389,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10396,7 +10405,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10412,7 +10421,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10428,7 +10437,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10444,7 +10453,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10460,7 +10469,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10476,7 +10485,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10492,7 +10501,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10508,7 +10517,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10524,7 +10533,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10540,21 +10549,37 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="41"/>
-      <c r="B425" s="15"/>
-      <c r="C425" s="42"/>
-      <c r="D425" s="43"/>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="39"/>
       <c r="E425" s="9"/>
-      <c r="F425" s="15"/>
+      <c r="F425" s="20"/>
       <c r="G425" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H425" s="43"/>
+      <c r="H425" s="39"/>
       <c r="I425" s="9"/>
-      <c r="J425" s="12"/>
-      <c r="K425" s="15"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="41"/>
+      <c r="B426" s="15"/>
+      <c r="C426" s="42"/>
+      <c r="D426" s="43"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="15"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="43"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="12"/>
+      <c r="K426" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10571,10 +10596,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10597,28 +10622,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -10631,7 +10656,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10660,7 +10685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>54.442</v>
       </c>
@@ -10690,17 +10715,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10721,7 +10746,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10748,7 +10773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10774,7 +10799,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10800,7 +10825,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10826,7 +10851,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10852,7 +10877,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10878,7 +10903,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10904,7 +10929,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10930,7 +10955,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10950,7 +10975,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10970,7 +10995,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10990,7 +11015,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11011,7 +11036,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11032,7 +11057,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11053,7 +11078,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11074,7 +11099,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11095,7 +11120,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11116,7 +11141,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11137,7 +11162,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11158,7 +11183,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11179,7 +11204,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11200,7 +11225,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11221,7 +11246,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11242,7 +11267,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11263,7 +11288,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11284,7 +11309,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11305,7 +11330,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11326,7 +11351,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11347,7 +11372,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11368,7 +11393,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11389,7 +11414,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11410,7 +11435,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11419,7 +11444,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11428,7 +11453,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11437,7 +11462,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11446,7 +11471,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11455,7 +11480,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11464,7 +11489,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11473,7 +11498,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11482,7 +11507,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11491,7 +11516,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11500,7 +11525,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11509,7 +11534,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11518,7 +11543,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11527,7 +11552,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11536,7 +11561,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11545,7 +11570,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11554,7 +11579,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11563,7 +11588,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11572,7 +11597,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11581,7 +11606,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11590,7 +11615,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11599,7 +11624,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11608,7 +11633,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11617,7 +11642,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11626,7 +11651,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11635,7 +11660,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11644,7 +11669,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11653,7 +11678,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11662,7 +11687,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11671,7 +11696,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
